--- a/Data/Matching_LWR_data/Calculated_variables_matching_fresh.xlsx
+++ b/Data/Matching_LWR_data/Calculated_variables_matching_fresh.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="26529"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="26827"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\gabes\Documents\AlbatrossPhillipinesLWR\Data\Matching_LWR_data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8CF5AC9C-0E6D-46F4-BCB1-E11A879E8F9C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3B516DA8-35AC-46BD-A401-2AF8D4090687}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="28800" yWindow="8175" windowWidth="14400" windowHeight="7425" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="28800" yWindow="90" windowWidth="14400" windowHeight="15600" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -474,7 +474,7 @@
   <dimension ref="A1:T5"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="I8" sqref="I8"/>
+      <selection activeCell="K2" sqref="K2:N5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
